--- a/biology/Zoologie/Colias_alexandra/Colias_alexandra.xlsx
+++ b/biology/Zoologie/Colias_alexandra/Colias_alexandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias alexandra est un  insecte lépidoptère de la famille des Pieridae de la sous-famille des Coliadinae et du genre Colias.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Colias alexandra a été nommé par William H. Edwards en 1863.
-Sous-espèces  et formes
-Colias alexandra alexandra présent au Canada dans l'Alberta et aux USA dans l'Utah, le Wyoming, le Colorado, le Montana, le Dakota du Sud et le Nebraska.
-Colias alexandra apache (Ferris, 1988) en Arizona et au Nouveau-Mexique.
-Colias alexandra columbiensis (Ferris, 1973) en Colombie-Britannique, Alberta et Idaho.
-Colias alexandra edwardsii (Edwards, 1870) au Nevada, en Californie, Oregon, Idaho et Montana[1].
-Noms vernaculaires
-Colias alexandra se nomme Queen Alexandra's Sulphur ou Alexandra Sulphur ou Ultraviolet Sulfur  en anglais.
 </t>
         </is>
       </c>
@@ -546,16 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Colias alexandra est un papillon de taille moyenne (son envergure varie de 38 à 57 mm), d'une couleur jaune brillant avec ou non suivant les sous-espèces une bordure marron. Les franges sont jaunes pour Colias alexandra alexandra, parfois roses pour Colias alexandra colombasis.
-Certaines femelles peuvent être blanches[2]
-Chenille
-Les chenilles sont vertes ornées de raie longitudinales plus ou moins foncées[2].
-</t>
+          <t>Sous-espèces  et formes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Colias alexandra alexandra présent au Canada dans l'Alberta et aux USA dans l'Utah, le Wyoming, le Colorado, le Montana, le Dakota du Sud et le Nebraska.
+Colias alexandra apache (Ferris, 1988) en Arizona et au Nouveau-Mexique.
+Colias alexandra columbiensis (Ferris, 1973) en Colombie-Britannique, Alberta et Idaho.
+Colias alexandra edwardsii (Edwards, 1870) au Nevada, en Californie, Oregon, Idaho et Montana.</t>
         </is>
       </c>
     </row>
@@ -580,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Colias alexandra hiverne au stade de chenille[3].
-Colias alexandra vole de mi-mai à août, en une seule génération.
-Plantes hôtes
-Les plantes hôtes de sa chenille sont diverses : des Thermopsis, de très nombreux Astragalus, des Lathyrus, des Oxytropis et des  Lupinus[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias alexandra se nomme Queen Alexandra's Sulphur ou Alexandra Sulphur ou Ultraviolet Sulfur  en anglais.
 </t>
         </is>
       </c>
@@ -615,16 +629,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colias alexandra est présent dans tout le nord-ouest de l'Amérique du Nord. Au Canada il réside en Saskatchewan, dans l'Alberta et la Colombie-Britannique[2]. Aux USA il réside dans l'Utah, le Wyoming, le Colorado, le Montana, le Dakota du Sud et le Nebraska, le Nevada, l'Oregon, l'Idaho, l'Arizona, la Californie et le Nouveau-Mexique[1],[3].
-Biotope
-Colias alexandra réside dans les prés, les bois clairs et les bords de routes.
-Protection
-Pas de statut de protection particulier[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias alexandra est un papillon de taille moyenne (son envergure varie de 38 à 57 mm), d'une couleur jaune brillant avec ou non suivant les sous-espèces une bordure marron. Les franges sont jaunes pour Colias alexandra alexandra, parfois roses pour Colias alexandra colombasis.
+Certaines femelles peuvent être blanches
 </t>
         </is>
       </c>
@@ -650,10 +663,231 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont vertes ornées de raie longitudinales plus ou moins foncées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias alexandra hiverne au stade de chenille.
+Colias alexandra vole de mi-mai à août, en une seule génération.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont diverses : des Thermopsis, de très nombreux Astragalus, des Lathyrus, des Oxytropis et des  Lupinus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias alexandra est présent dans tout le nord-ouest de l'Amérique du Nord. Au Canada il réside en Saskatchewan, dans l'Alberta et la Colombie-Britannique. Aux USA il réside dans l'Utah, le Wyoming, le Colorado, le Montana, le Dakota du Sud et le Nebraska, le Nevada, l'Oregon, l'Idaho, l'Arizona, la Californie et le Nouveau-Mexique,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colias alexandra réside dans les prés, les bois clairs et les bords de routes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colias_alexandra</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
